--- a/Farewell message to Khairul Nazran.xlsx
+++ b/Farewell message to Khairul Nazran.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <x:si>
     <x:t xml:space="preserve">ID</x:t>
   </x:si>
@@ -165,6 +165,117 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">bella</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Smart</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Berpisah sebelum bertemu!
+Thanks for extending a warm hand of welcome to me.
+All the best to you bro!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Peter Ho</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Handyman (Is there no problem he can’t fix?)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">We may not know each other too well, or we may know each other only by name. But I wish you best of luck for your new endeavor and the never-ending adventures!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Rhima Huri</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Cheerful</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wishing you a bright and colorful future in which all your dreams come true.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Sarina</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Never thought that you will leave before me, but all the best! You will be the big name in data science field!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tai Chin Chuen</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">New</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Good Luck Bro!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">New Joiner (AH)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Knowledgeable </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Good luck Naz on your future endeavours.  Thank you for all the programming knowledge and guidance. </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ikhwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">cool</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">this is not a goodbye.. wishing u well on ur next adventure!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Amazing</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">All the best for your new journey!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Naz! Good luck for your future endeavours.
+Stay cool and safe(;</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">zalini</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Idola</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">All the best for your future endeavors! I hope I can follow you soon 🏃</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">You know who I am</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Nice person</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Farewell and all the best in your future under taking!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Genius</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">As I'm also leaving JPS for good, I pray for both of us to have new adventure, circle of friends and definitely good future prospect. Insya Allah. All the best Naz and take care.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Ade</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">gymguylunchhourbeforecovidsayhi</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">All the best Nazran, have fun outside BNM!!! Do you have more vacancies at new place tak? Cannot share picture, kantoi la. Huhu</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">SquidGameAddict</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Supportive</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Wish you all the best in your future endeavor!</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -261,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I13" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:I13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I27" insertRow="1" totalsRowShown="0">
+  <x:autoFilter ref="A1:I27"/>
   <x:tableColumns count="9">
     <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
     <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
@@ -921,11 +1032,351 @@
       </x:c>
       <x:c r="I13" s="10" t="s"/>
     </x:row>
+    <x:row r="14" hidden="0">
+      <x:c r="A14">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="2">
+        <x:v>44461.6876736111</x:v>
+      </x:c>
+      <x:c r="C14" s="2">
+        <x:v>44461.6891782407</x:v>
+      </x:c>
+      <x:c r="D14" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E14" s="10" t="s"/>
+      <x:c r="F14" s="10" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G14" s="10" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H14" s="10" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I14" s="10" t="s"/>
+    </x:row>
+    <x:row r="15" hidden="0">
+      <x:c r="A15">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="2">
+        <x:v>44462.7387731481</x:v>
+      </x:c>
+      <x:c r="C15" s="2">
+        <x:v>44462.7460416667</x:v>
+      </x:c>
+      <x:c r="D15" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E15" s="10" t="s"/>
+      <x:c r="F15" s="10" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G15" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H15" s="10" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="I15" s="10" t="s"/>
+    </x:row>
+    <x:row r="16" hidden="0">
+      <x:c r="A16">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="2">
+        <x:v>44462.8004976852</x:v>
+      </x:c>
+      <x:c r="C16" s="2">
+        <x:v>44462.8027777778</x:v>
+      </x:c>
+      <x:c r="D16" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E16" s="10" t="s"/>
+      <x:c r="F16" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G16" s="10" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H16" s="10" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I16" s="10" t="s"/>
+    </x:row>
+    <x:row r="17" hidden="0">
+      <x:c r="A17">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="2">
+        <x:v>44463.2042592593</x:v>
+      </x:c>
+      <x:c r="C17" s="2">
+        <x:v>44463.2073842593</x:v>
+      </x:c>
+      <x:c r="D17" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E17" s="10" t="s"/>
+      <x:c r="F17" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G17" s="10" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H17" s="10" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I17" s="10" t="s"/>
+    </x:row>
+    <x:row r="18" hidden="0">
+      <x:c r="A18">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="2">
+        <x:v>44463.6835185185</x:v>
+      </x:c>
+      <x:c r="C18" s="2">
+        <x:v>44463.6841782407</x:v>
+      </x:c>
+      <x:c r="D18" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E18" s="10" t="s"/>
+      <x:c r="F18" s="10" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G18" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H18" s="10" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="I18" s="10" t="s"/>
+    </x:row>
+    <x:row r="19" hidden="0">
+      <x:c r="A19">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="2">
+        <x:v>44463.6825462963</x:v>
+      </x:c>
+      <x:c r="C19" s="2">
+        <x:v>44463.6856481481</x:v>
+      </x:c>
+      <x:c r="D19" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E19" s="10" t="s"/>
+      <x:c r="F19" s="10" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G19" s="10" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H19" s="10" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="I19" s="10" t="s"/>
+    </x:row>
+    <x:row r="20" hidden="0">
+      <x:c r="A20">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="2">
+        <x:v>44463.6865277778</x:v>
+      </x:c>
+      <x:c r="C20" s="2">
+        <x:v>44463.6896759259</x:v>
+      </x:c>
+      <x:c r="D20" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E20" s="10" t="s"/>
+      <x:c r="F20" s="10" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G20" s="10" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H20" s="10" t="s"/>
+      <x:c r="I20" s="10" t="s"/>
+    </x:row>
+    <x:row r="21" hidden="0">
+      <x:c r="A21">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="2">
+        <x:v>44463.7065393519</x:v>
+      </x:c>
+      <x:c r="C21" s="2">
+        <x:v>44463.7073148148</x:v>
+      </x:c>
+      <x:c r="D21" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E21" s="10" t="s"/>
+      <x:c r="F21" s="10" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="G21" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H21" s="10" t="s"/>
+      <x:c r="I21" s="10" t="s"/>
+    </x:row>
+    <x:row r="22" hidden="0">
+      <x:c r="A22">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="2">
+        <x:v>44463.7106134259</x:v>
+      </x:c>
+      <x:c r="C22" s="2">
+        <x:v>44463.7124421296</x:v>
+      </x:c>
+      <x:c r="D22" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E22" s="10" t="s"/>
+      <x:c r="F22" s="10" t="s"/>
+      <x:c r="G22" s="10" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H22" s="10" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I22" s="10" t="s"/>
+    </x:row>
+    <x:row r="23" hidden="0">
+      <x:c r="A23">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B23" s="2">
+        <x:v>44463.732974537</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>44463.735625</x:v>
+      </x:c>
+      <x:c r="D23" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E23" s="10" t="s"/>
+      <x:c r="F23" s="10" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G23" s="10" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H23" s="10" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="I23" s="10" t="s"/>
+    </x:row>
+    <x:row r="24" hidden="0">
+      <x:c r="A24">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B24" s="2">
+        <x:v>44463.7367939815</x:v>
+      </x:c>
+      <x:c r="C24" s="2">
+        <x:v>44463.7375115741</x:v>
+      </x:c>
+      <x:c r="D24" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E24" s="10" t="s"/>
+      <x:c r="F24" s="10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G24" s="10" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H24" s="10" t="s"/>
+      <x:c r="I24" s="10" t="s"/>
+    </x:row>
+    <x:row r="25" hidden="0">
+      <x:c r="A25">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B25" s="2">
+        <x:v>44463.757650463</x:v>
+      </x:c>
+      <x:c r="C25" s="2">
+        <x:v>44463.7659259259</x:v>
+      </x:c>
+      <x:c r="D25" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E25" s="10" t="s"/>
+      <x:c r="F25" s="10" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G25" s="10" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H25" s="10" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I25" s="10" t="s"/>
+    </x:row>
+    <x:row r="26" hidden="0">
+      <x:c r="A26">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B26" s="2">
+        <x:v>44463.6815972222</x:v>
+      </x:c>
+      <x:c r="C26" s="2">
+        <x:v>44463.9271759259</x:v>
+      </x:c>
+      <x:c r="D26" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E26" s="10" t="s"/>
+      <x:c r="F26" s="10" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="G26" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H26" s="10" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I26" s="10" t="s"/>
+    </x:row>
+    <x:row r="27" hidden="0">
+      <x:c r="A27">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="2">
+        <x:v>44464.1494444444</x:v>
+      </x:c>
+      <x:c r="C27" s="2">
+        <x:v>44464.1500347222</x:v>
+      </x:c>
+      <x:c r="D27" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E27" s="10" t="s"/>
+      <x:c r="F27" s="10" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G27" s="10" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H27" s="10" t="s"/>
+      <x:c r="I27" s="10" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <x:tableParts count="1">
-    <x:tablePart r:id="R0a72982ab1594b25"/>
+    <x:tablePart r:id="R77597e2a921546ac"/>
   </x:tableParts>
 </x:worksheet>
 </file>